--- a/natmiOut/OldD2/LR-pairs_lrc2p/Pf4-Sdc2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Pf4-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Sdc2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>220.244963555666</v>
+        <v>0.197427</v>
       </c>
       <c r="H2">
-        <v>220.244963555666</v>
+        <v>0.394854</v>
       </c>
       <c r="I2">
-        <v>0.6142483077693223</v>
+        <v>0.000452391028090995</v>
       </c>
       <c r="J2">
-        <v>0.6142483077693223</v>
+        <v>0.0003016395050625994</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.997386032128483</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N2">
-        <v>0.997386032128483</v>
+        <v>1.998366</v>
       </c>
       <c r="O2">
-        <v>0.01575351394248427</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P2">
-        <v>0.01575351394248427</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q2">
-        <v>219.6692502970681</v>
+        <v>0.197265702141</v>
       </c>
       <c r="R2">
-        <v>219.6692502970681</v>
+        <v>0.7890628085639999</v>
       </c>
       <c r="S2">
-        <v>0.009676569280591388</v>
+        <v>6.734810801141818E-06</v>
       </c>
       <c r="T2">
-        <v>0.009676569280591388</v>
+        <v>3.432058125723637E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>220.244963555666</v>
+        <v>0.197427</v>
       </c>
       <c r="H3">
-        <v>220.244963555666</v>
+        <v>0.394854</v>
       </c>
       <c r="I3">
-        <v>0.6142483077693223</v>
+        <v>0.000452391028090995</v>
       </c>
       <c r="J3">
-        <v>0.6142483077693223</v>
+        <v>0.0003016395050625994</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.9720630093316</v>
+        <v>39.565288</v>
       </c>
       <c r="N3">
-        <v>36.9720630093316</v>
+        <v>118.695864</v>
       </c>
       <c r="O3">
-        <v>0.5839663794538508</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P3">
-        <v>0.5839663794538508</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q3">
-        <v>8142.910670068025</v>
+        <v>7.811256113976</v>
       </c>
       <c r="R3">
-        <v>8142.910670068025</v>
+        <v>46.867536683856</v>
       </c>
       <c r="S3">
-        <v>0.3587003603737058</v>
+        <v>0.0002666826086639652</v>
       </c>
       <c r="T3">
-        <v>0.3587003603737058</v>
+        <v>0.0002038520994307288</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,49 +664,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>220.244963555666</v>
+        <v>0.197427</v>
       </c>
       <c r="H4">
-        <v>220.244963555666</v>
+        <v>0.394854</v>
       </c>
       <c r="I4">
-        <v>0.6142483077693223</v>
+        <v>0.000452391028090995</v>
       </c>
       <c r="J4">
-        <v>0.6142483077693223</v>
+        <v>0.0003016395050625994</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.4251159554415</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N4">
-        <v>1.4251159554415</v>
+        <v>0.185132</v>
       </c>
       <c r="O4">
-        <v>0.02250942298218628</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P4">
-        <v>0.02250942298218628</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q4">
-        <v>313.8746116688113</v>
+        <v>0.012183351788</v>
       </c>
       <c r="R4">
-        <v>313.8746116688113</v>
+        <v>0.07310011072799999</v>
       </c>
       <c r="S4">
-        <v>0.01382637497567182</v>
+        <v>4.159494951498665E-07</v>
       </c>
       <c r="T4">
-        <v>0.01382637497567182</v>
+        <v>3.179516589711136E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,123 +714,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>220.244963555666</v>
+        <v>0.197427</v>
       </c>
       <c r="H5">
-        <v>220.244963555666</v>
+        <v>0.394854</v>
       </c>
       <c r="I5">
-        <v>0.6142483077693223</v>
+        <v>0.000452391028090995</v>
       </c>
       <c r="J5">
-        <v>0.6142483077693223</v>
+        <v>0.0003016395050625994</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.9174069079012</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N5">
-        <v>23.9174069079012</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O5">
-        <v>0.3777706836214788</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P5">
-        <v>0.3777706836214788</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q5">
-        <v>5267.688412776734</v>
+        <v>0.349974170461</v>
       </c>
       <c r="R5">
-        <v>5267.688412776734</v>
+        <v>2.099845022766</v>
       </c>
       <c r="S5">
-        <v>0.2320450031393534</v>
+        <v>1.194840156073693E-05</v>
       </c>
       <c r="T5">
-        <v>0.2320450031393534</v>
+        <v>9.133354271581859E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>136.912534906601</v>
+        <v>0.197427</v>
       </c>
       <c r="H6">
-        <v>136.912534906601</v>
+        <v>0.394854</v>
       </c>
       <c r="I6">
-        <v>0.381839800198348</v>
+        <v>0.000452391028090995</v>
       </c>
       <c r="J6">
-        <v>0.381839800198348</v>
+        <v>0.0003016395050625994</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.997386032128483</v>
+        <v>24.7183095</v>
       </c>
       <c r="N6">
-        <v>0.997386032128483</v>
+        <v>49.436619</v>
       </c>
       <c r="O6">
-        <v>0.01575351394248427</v>
+        <v>0.3682859456189059</v>
       </c>
       <c r="P6">
-        <v>0.01575351394248427</v>
+        <v>0.2814752051723923</v>
       </c>
       <c r="Q6">
-        <v>136.5546499391472</v>
+        <v>4.880061689656499</v>
       </c>
       <c r="R6">
-        <v>136.5546499391472</v>
+        <v>19.520246758626</v>
       </c>
       <c r="S6">
-        <v>0.006015318616220083</v>
+        <v>0.0001666092575700011</v>
       </c>
       <c r="T6">
-        <v>0.006015318616220083</v>
+        <v>8.490404157559404E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>136.912534906601</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H7">
-        <v>136.912534906601</v>
+        <v>3.752158</v>
       </c>
       <c r="I7">
-        <v>0.381839800198348</v>
+        <v>0.002865941360907832</v>
       </c>
       <c r="J7">
-        <v>0.381839800198348</v>
+        <v>0.002866373601474654</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.9720630093316</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N7">
-        <v>36.9720630093316</v>
+        <v>1.998366</v>
       </c>
       <c r="O7">
-        <v>0.5839663794538508</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P7">
-        <v>0.5839663794538508</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q7">
-        <v>5061.938867334164</v>
+        <v>1.249697495638</v>
       </c>
       <c r="R7">
-        <v>5061.938867334164</v>
+        <v>7.498184973828</v>
       </c>
       <c r="S7">
-        <v>0.222981605653211</v>
+        <v>4.266568440654129E-05</v>
       </c>
       <c r="T7">
-        <v>0.222981605653211</v>
+        <v>3.261363530038685E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>136.912534906601</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H8">
-        <v>136.912534906601</v>
+        <v>3.752158</v>
       </c>
       <c r="I8">
-        <v>0.381839800198348</v>
+        <v>0.002865941360907832</v>
       </c>
       <c r="J8">
-        <v>0.381839800198348</v>
+        <v>0.002866373601474654</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.4251159554415</v>
+        <v>39.565288</v>
       </c>
       <c r="N8">
-        <v>1.4251159554415</v>
+        <v>118.695864</v>
       </c>
       <c r="O8">
-        <v>0.02250942298218628</v>
+        <v>0.5894957947979553</v>
       </c>
       <c r="P8">
-        <v>0.02250942298218628</v>
+        <v>0.6758136650185235</v>
       </c>
       <c r="Q8">
-        <v>195.1162379953384</v>
+        <v>49.48507063050133</v>
       </c>
       <c r="R8">
-        <v>195.1162379953384</v>
+        <v>445.365635674512</v>
       </c>
       <c r="S8">
-        <v>0.008594993574098113</v>
+        <v>0.001689460380392696</v>
       </c>
       <c r="T8">
-        <v>0.008594993574098113</v>
+        <v>0.00193713444892493</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,185 +962,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>136.912534906601</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H9">
-        <v>136.912534906601</v>
+        <v>3.752158</v>
       </c>
       <c r="I9">
-        <v>0.381839800198348</v>
+        <v>0.002865941360907832</v>
       </c>
       <c r="J9">
-        <v>0.381839800198348</v>
+        <v>0.002866373601474654</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>23.9174069079012</v>
+        <v>0.06171066666666666</v>
       </c>
       <c r="N9">
-        <v>23.9174069079012</v>
+        <v>0.185132</v>
       </c>
       <c r="O9">
-        <v>0.3777706836214788</v>
+        <v>0.0009194468265763251</v>
       </c>
       <c r="P9">
-        <v>0.3777706836214788</v>
+        <v>0.001054078307498645</v>
       </c>
       <c r="Q9">
-        <v>3274.592808153403</v>
+        <v>0.07718272387288888</v>
       </c>
       <c r="R9">
-        <v>3274.592808153403</v>
+        <v>0.694644514856</v>
       </c>
       <c r="S9">
-        <v>0.1442478823548188</v>
+        <v>2.63508068944054E-06</v>
       </c>
       <c r="T9">
-        <v>0.1442478823548188</v>
+        <v>3.021382234501197E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.40264858233478</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H10">
-        <v>1.40264858233478</v>
+        <v>3.752158</v>
       </c>
       <c r="I10">
-        <v>0.003911892032329803</v>
+        <v>0.002865941360907832</v>
       </c>
       <c r="J10">
-        <v>0.003911892032329803</v>
+        <v>0.002866373601474654</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.997386032128483</v>
+        <v>1.772676333333334</v>
       </c>
       <c r="N10">
-        <v>0.997386032128483</v>
+        <v>5.318029000000001</v>
       </c>
       <c r="O10">
-        <v>0.01575351394248427</v>
+        <v>0.0264116678245299</v>
       </c>
       <c r="P10">
-        <v>0.01575351394248427</v>
+        <v>0.03027903878070085</v>
       </c>
       <c r="Q10">
-        <v>1.398982104005528</v>
+        <v>2.217120561842445</v>
       </c>
       <c r="R10">
-        <v>1.398982104005528</v>
+        <v>19.95408505658201</v>
       </c>
       <c r="S10">
-        <v>6.162604567280069E-05</v>
+        <v>7.569429122887881E-05</v>
       </c>
       <c r="T10">
-        <v>6.162604567280069E-05</v>
+        <v>8.679103743902821E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.40264858233478</v>
+        <v>1.250719333333333</v>
       </c>
       <c r="H11">
-        <v>1.40264858233478</v>
+        <v>3.752158</v>
       </c>
       <c r="I11">
-        <v>0.003911892032329803</v>
+        <v>0.002865941360907832</v>
       </c>
       <c r="J11">
-        <v>0.003911892032329803</v>
+        <v>0.002866373601474654</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.9720630093316</v>
+        <v>24.7183095</v>
       </c>
       <c r="N11">
-        <v>36.9720630093316</v>
+        <v>49.436619</v>
       </c>
       <c r="O11">
-        <v>0.5839663794538508</v>
+        <v>0.3682859456189059</v>
       </c>
       <c r="P11">
-        <v>0.5839663794538508</v>
+        <v>0.2814752051723923</v>
       </c>
       <c r="Q11">
-        <v>51.85881176603113</v>
+        <v>30.915667578967</v>
       </c>
       <c r="R11">
-        <v>51.85881176603113</v>
+        <v>185.494005473802</v>
       </c>
       <c r="S11">
-        <v>0.002284413426934001</v>
+        <v>0.001055485924190275</v>
       </c>
       <c r="T11">
-        <v>0.002284413426934001</v>
+        <v>0.0008068130975758072</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.40264858233478</v>
+        <v>262.0776013333333</v>
       </c>
       <c r="H12">
-        <v>1.40264858233478</v>
+        <v>786.232804</v>
       </c>
       <c r="I12">
-        <v>0.003911892032329803</v>
+        <v>0.6005336428492992</v>
       </c>
       <c r="J12">
-        <v>0.003911892032329803</v>
+        <v>0.6006242151847005</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.4251159554415</v>
+        <v>0.9991829999999999</v>
       </c>
       <c r="N12">
-        <v>1.4251159554415</v>
+        <v>1.998366</v>
       </c>
       <c r="O12">
-        <v>0.02250942298218628</v>
+        <v>0.01488714493203248</v>
       </c>
       <c r="P12">
-        <v>0.02250942298218628</v>
+        <v>0.01137801272088475</v>
       </c>
       <c r="Q12">
-        <v>1.998936874562696</v>
+        <v>261.863483933044</v>
       </c>
       <c r="R12">
-        <v>1.998936874562696</v>
+        <v>1571.180903598264</v>
       </c>
       <c r="S12">
-        <v>8.805443241635588E-05</v>
+        <v>0.008940231377658946</v>
       </c>
       <c r="T12">
-        <v>8.805443241635588E-05</v>
+        <v>0.006833909960842944</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>262.0776013333333</v>
+      </c>
+      <c r="H13">
+        <v>786.232804</v>
+      </c>
+      <c r="I13">
+        <v>0.6005336428492992</v>
+      </c>
+      <c r="J13">
+        <v>0.6006242151847005</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>39.565288</v>
+      </c>
+      <c r="N13">
+        <v>118.695864</v>
+      </c>
+      <c r="O13">
+        <v>0.5894957947979553</v>
+      </c>
+      <c r="P13">
+        <v>0.6758136650185235</v>
+      </c>
+      <c r="Q13">
+        <v>10369.17577510252</v>
+      </c>
+      <c r="R13">
+        <v>93322.58197592266</v>
+      </c>
+      <c r="S13">
+        <v>0.3540120570943591</v>
+      </c>
+      <c r="T13">
+        <v>0.4059100521628468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>262.0776013333333</v>
+      </c>
+      <c r="H14">
+        <v>786.232804</v>
+      </c>
+      <c r="I14">
+        <v>0.6005336428492992</v>
+      </c>
+      <c r="J14">
+        <v>0.6006242151847005</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.06171066666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.185132</v>
+      </c>
+      <c r="O14">
+        <v>0.0009194468265763251</v>
+      </c>
+      <c r="P14">
+        <v>0.001054078307498645</v>
+      </c>
+      <c r="Q14">
+        <v>16.17298349668089</v>
+      </c>
+      <c r="R14">
+        <v>145.556851470128</v>
+      </c>
+      <c r="S14">
+        <v>0.0005521587521701084</v>
+      </c>
+      <c r="T14">
+        <v>0.0006331049561845908</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>262.0776013333333</v>
+      </c>
+      <c r="H15">
+        <v>786.232804</v>
+      </c>
+      <c r="I15">
+        <v>0.6005336428492992</v>
+      </c>
+      <c r="J15">
+        <v>0.6006242151847005</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.772676333333334</v>
+      </c>
+      <c r="N15">
+        <v>5.318029000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.0264116678245299</v>
+      </c>
+      <c r="P15">
+        <v>0.03027903878070085</v>
+      </c>
+      <c r="Q15">
+        <v>464.5787613803686</v>
+      </c>
+      <c r="R15">
+        <v>4181.208852423317</v>
+      </c>
+      <c r="S15">
+        <v>0.01586109509239056</v>
+      </c>
+      <c r="T15">
+        <v>0.01818632390420556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>262.0776013333333</v>
+      </c>
+      <c r="H16">
+        <v>786.232804</v>
+      </c>
+      <c r="I16">
+        <v>0.6005336428492992</v>
+      </c>
+      <c r="J16">
+        <v>0.6006242151847005</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>24.7183095</v>
+      </c>
+      <c r="N16">
+        <v>49.436619</v>
+      </c>
+      <c r="O16">
+        <v>0.3682859456189059</v>
+      </c>
+      <c r="P16">
+        <v>0.2814752051723923</v>
+      </c>
+      <c r="Q16">
+        <v>6478.115262774946</v>
+      </c>
+      <c r="R16">
+        <v>38868.69157664967</v>
+      </c>
+      <c r="S16">
+        <v>0.2211681005327205</v>
+      </c>
+      <c r="T16">
+        <v>0.1690608242006207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>171.1119283333333</v>
+      </c>
+      <c r="H17">
+        <v>513.335785</v>
+      </c>
+      <c r="I17">
+        <v>0.3920917664622839</v>
+      </c>
+      <c r="J17">
+        <v>0.3921509016454713</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.9991829999999999</v>
+      </c>
+      <c r="N17">
+        <v>1.998366</v>
+      </c>
+      <c r="O17">
+        <v>0.01488714493203248</v>
+      </c>
+      <c r="P17">
+        <v>0.01137801272088475</v>
+      </c>
+      <c r="Q17">
+        <v>170.972129887885</v>
+      </c>
+      <c r="R17">
+        <v>1025.83277932731</v>
+      </c>
+      <c r="S17">
+        <v>0.005837126953980651</v>
+      </c>
+      <c r="T17">
+        <v>0.004461897947428599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>171.1119283333333</v>
+      </c>
+      <c r="H18">
+        <v>513.335785</v>
+      </c>
+      <c r="I18">
+        <v>0.3920917664622839</v>
+      </c>
+      <c r="J18">
+        <v>0.3921509016454713</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>39.565288</v>
+      </c>
+      <c r="N18">
+        <v>118.695864</v>
+      </c>
+      <c r="O18">
+        <v>0.5894957947979553</v>
+      </c>
+      <c r="P18">
+        <v>0.6758136650185235</v>
+      </c>
+      <c r="Q18">
+        <v>6770.092724743694</v>
+      </c>
+      <c r="R18">
+        <v>60930.83452269324</v>
+      </c>
+      <c r="S18">
+        <v>0.2311364475044183</v>
+      </c>
+      <c r="T18">
+        <v>0.2650209380813445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>171.1119283333333</v>
+      </c>
+      <c r="H19">
+        <v>513.335785</v>
+      </c>
+      <c r="I19">
+        <v>0.3920917664622839</v>
+      </c>
+      <c r="J19">
+        <v>0.3921509016454713</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.06171066666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.185132</v>
+      </c>
+      <c r="O19">
+        <v>0.0009194468265763251</v>
+      </c>
+      <c r="P19">
+        <v>0.001054078307498645</v>
+      </c>
+      <c r="Q19">
+        <v>10.55943117206889</v>
+      </c>
+      <c r="R19">
+        <v>95.03488054862</v>
+      </c>
+      <c r="S19">
+        <v>0.0003605075304004525</v>
+      </c>
+      <c r="T19">
+        <v>0.0004133577586905259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>171.1119283333333</v>
+      </c>
+      <c r="H20">
+        <v>513.335785</v>
+      </c>
+      <c r="I20">
+        <v>0.3920917664622839</v>
+      </c>
+      <c r="J20">
+        <v>0.3921509016454713</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.772676333333334</v>
+      </c>
+      <c r="N20">
+        <v>5.318029000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.0264116678245299</v>
+      </c>
+      <c r="P20">
+        <v>0.03027903878070085</v>
+      </c>
+      <c r="Q20">
+        <v>303.3260657075296</v>
+      </c>
+      <c r="R20">
+        <v>2729.934591367765</v>
+      </c>
+      <c r="S20">
+        <v>0.01035579749253499</v>
+      </c>
+      <c r="T20">
+        <v>0.01187395235881003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.40264858233478</v>
-      </c>
-      <c r="H13">
-        <v>1.40264858233478</v>
-      </c>
-      <c r="I13">
-        <v>0.003911892032329803</v>
-      </c>
-      <c r="J13">
-        <v>0.003911892032329803</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>23.9174069079012</v>
-      </c>
-      <c r="N13">
-        <v>23.9174069079012</v>
-      </c>
-      <c r="O13">
-        <v>0.3777706836214788</v>
-      </c>
-      <c r="P13">
-        <v>0.3777706836214788</v>
-      </c>
-      <c r="Q13">
-        <v>33.54771689249169</v>
-      </c>
-      <c r="R13">
-        <v>33.54771689249169</v>
-      </c>
-      <c r="S13">
-        <v>0.001477798127306645</v>
-      </c>
-      <c r="T13">
-        <v>0.001477798127306645</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>171.1119283333333</v>
+      </c>
+      <c r="H21">
+        <v>513.335785</v>
+      </c>
+      <c r="I21">
+        <v>0.3920917664622839</v>
+      </c>
+      <c r="J21">
+        <v>0.3921509016454713</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>24.7183095</v>
+      </c>
+      <c r="N21">
+        <v>49.436619</v>
+      </c>
+      <c r="O21">
+        <v>0.3682859456189059</v>
+      </c>
+      <c r="P21">
+        <v>0.2814752051723923</v>
+      </c>
+      <c r="Q21">
+        <v>4229.597603685153</v>
+      </c>
+      <c r="R21">
+        <v>25377.58562211091</v>
+      </c>
+      <c r="S21">
+        <v>0.1444018869809494</v>
+      </c>
+      <c r="T21">
+        <v>0.1103807554991977</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.770183</v>
+      </c>
+      <c r="H22">
+        <v>5.310549</v>
+      </c>
+      <c r="I22">
+        <v>0.004056258299418022</v>
+      </c>
+      <c r="J22">
+        <v>0.004056870063290943</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.9991829999999999</v>
+      </c>
+      <c r="N22">
+        <v>1.998366</v>
+      </c>
+      <c r="O22">
+        <v>0.01488714493203248</v>
+      </c>
+      <c r="P22">
+        <v>0.01137801272088475</v>
+      </c>
+      <c r="Q22">
+        <v>1.768736760489</v>
+      </c>
+      <c r="R22">
+        <v>10.612420562934</v>
+      </c>
+      <c r="S22">
+        <v>6.038610518519568E-05</v>
+      </c>
+      <c r="T22">
+        <v>4.615911918710089E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.770183</v>
+      </c>
+      <c r="H23">
+        <v>5.310549</v>
+      </c>
+      <c r="I23">
+        <v>0.004056258299418022</v>
+      </c>
+      <c r="J23">
+        <v>0.004056870063290943</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>39.565288</v>
+      </c>
+      <c r="N23">
+        <v>118.695864</v>
+      </c>
+      <c r="O23">
+        <v>0.5894957947979553</v>
+      </c>
+      <c r="P23">
+        <v>0.6758136650185235</v>
+      </c>
+      <c r="Q23">
+        <v>70.03780020770401</v>
+      </c>
+      <c r="R23">
+        <v>630.3402018693359</v>
+      </c>
+      <c r="S23">
+        <v>0.00239114721012123</v>
+      </c>
+      <c r="T23">
+        <v>0.002741688225976582</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.770183</v>
+      </c>
+      <c r="H24">
+        <v>5.310549</v>
+      </c>
+      <c r="I24">
+        <v>0.004056258299418022</v>
+      </c>
+      <c r="J24">
+        <v>0.004056870063290943</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.06171066666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.185132</v>
+      </c>
+      <c r="O24">
+        <v>0.0009194468265763251</v>
+      </c>
+      <c r="P24">
+        <v>0.001054078307498645</v>
+      </c>
+      <c r="Q24">
+        <v>0.109239173052</v>
+      </c>
+      <c r="R24">
+        <v>0.9831525574679999</v>
+      </c>
+      <c r="S24">
+        <v>3.729513821173781E-06</v>
+      </c>
+      <c r="T24">
+        <v>4.276258730055637E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.770183</v>
+      </c>
+      <c r="H25">
+        <v>5.310549</v>
+      </c>
+      <c r="I25">
+        <v>0.004056258299418022</v>
+      </c>
+      <c r="J25">
+        <v>0.004056870063290943</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.772676333333334</v>
+      </c>
+      <c r="N25">
+        <v>5.318029000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.0264116678245299</v>
+      </c>
+      <c r="P25">
+        <v>0.03027903878070085</v>
+      </c>
+      <c r="Q25">
+        <v>3.137961509769001</v>
+      </c>
+      <c r="R25">
+        <v>28.241653587921</v>
+      </c>
+      <c r="S25">
+        <v>0.0001071325468147213</v>
+      </c>
+      <c r="T25">
+        <v>0.0001228381259746508</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.770183</v>
+      </c>
+      <c r="H26">
+        <v>5.310549</v>
+      </c>
+      <c r="I26">
+        <v>0.004056258299418022</v>
+      </c>
+      <c r="J26">
+        <v>0.004056870063290943</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>24.7183095</v>
+      </c>
+      <c r="N26">
+        <v>49.436619</v>
+      </c>
+      <c r="O26">
+        <v>0.3682859456189059</v>
+      </c>
+      <c r="P26">
+        <v>0.2814752051723923</v>
+      </c>
+      <c r="Q26">
+        <v>43.7559312656385</v>
+      </c>
+      <c r="R26">
+        <v>262.535587593831</v>
+      </c>
+      <c r="S26">
+        <v>0.001493862923475701</v>
+      </c>
+      <c r="T26">
+        <v>0.001141908333422555</v>
       </c>
     </row>
   </sheetData>
